--- a/result/compare/yolograph/result-large.xlsx
+++ b/result/compare/yolograph/result-large.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\yolograph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/yolograph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EF39C2-99B4-46AB-956C-D73E664542D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C847D4F5-19AB-4943-BA36-29E52F5E9FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -3417,8 +3419,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8286016" y="3098556"/>
-          <a:ext cx="7385050" cy="4434943"/>
+          <a:off x="8963349" y="3364198"/>
+          <a:ext cx="8065559" cy="4811834"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
@@ -3596,12 +3598,12 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>516305</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>67828</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>143934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>405437</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>667800</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>61201</xdr:rowOff>
     </xdr:to>
@@ -3620,8 +3622,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8898305" y="3295122"/>
-          <a:ext cx="5223132" cy="2503491"/>
+          <a:off x="9643372" y="3843867"/>
+          <a:ext cx="5129895" cy="2448801"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3653,15 +3655,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>434458</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>154267</xdr:rowOff>
+      <xdr:colOff>537403</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>145032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>176061</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>618066</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>83117</xdr:rowOff>
+      <xdr:rowOff>33866</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3678,8 +3680,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8816458" y="3381561"/>
-          <a:ext cx="5075603" cy="2438968"/>
+          <a:off x="9664470" y="3844965"/>
+          <a:ext cx="5059063" cy="2420368"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4010,13 +4012,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I15" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4057,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4102,7 +4104,7 @@
         <v>0.62601626016260159</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -4147,7 +4149,7 @@
         <v>0.65040650406504064</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -4192,7 +4194,7 @@
         <v>0.65853658536585369</v>
       </c>
     </row>
-    <row r="6" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4237,7 +4239,7 @@
         <v>0.63414634146341464</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="V10" s="1"/>
     </row>
   </sheetData>

--- a/result/compare/yolograph/result-large.xlsx
+++ b/result/compare/yolograph/result-large.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/yolograph/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\yolograph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C847D4F5-19AB-4943-BA36-29E52F5E9FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130CE277-3E2E-4AAF-9468-19FC6269FE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="-28770" yWindow="8355" windowWidth="28770" windowHeight="15450" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3419,8 +3420,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8963349" y="3364198"/>
-          <a:ext cx="8065559" cy="4811834"/>
+          <a:off x="8286016" y="3098556"/>
+          <a:ext cx="7385050" cy="4434943"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
@@ -4012,32 +4013,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I15" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="8" width="10.90625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I2" t="s">
@@ -4059,27 +4063,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>43</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>19</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>34</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>27</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <f>C3+F3</f>
         <v>70</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <f>D3+E3</f>
         <v>53</v>
       </c>
@@ -4104,27 +4108,27 @@
         <v>0.62601626016260159</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>48</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>21</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>32</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>22</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <f t="shared" ref="G4:G6" si="0">C4+F4</f>
         <v>70</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <f t="shared" ref="H4:H6" si="1">D4+E4</f>
         <v>53</v>
       </c>
@@ -4149,27 +4153,27 @@
         <v>0.65040650406504064</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>54</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>26</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>27</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>16</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
@@ -4194,27 +4198,27 @@
         <v>0.65853658536585369</v>
       </c>
     </row>
-    <row r="6" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>55</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>30</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>23</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>15</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
@@ -4239,7 +4243,7 @@
         <v>0.63414634146341464</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
       <c r="V10" s="1"/>
     </row>
   </sheetData>

--- a/result/compare/yolograph/result-large.xlsx
+++ b/result/compare/yolograph/result-large.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\yolograph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/yolograph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130CE277-3E2E-4AAF-9468-19FC6269FE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87699DB-FD5A-2748-9CA3-D7D6486B9D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28770" yWindow="8355" windowWidth="28770" windowHeight="15450" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -73,16 +73,16 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>yolov5n</t>
+    <t>Yolov5n</t>
   </si>
   <si>
-    <t>yolov5s</t>
+    <t>Yolov5s</t>
   </si>
   <si>
-    <t>yolov5m</t>
+    <t>Yolov5m</t>
   </si>
   <si>
-    <t>yolov5l</t>
+    <t>Yolov5l</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5n</c:v>
+                  <c:v>Yolov5n</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -459,7 +459,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -512,7 +512,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5s</c:v>
+                  <c:v>Yolov5s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -526,14 +526,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -579,7 +579,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5m</c:v>
+                  <c:v>Yolov5m</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -593,14 +593,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -646,7 +646,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5l</c:v>
+                  <c:v>Yolov5l</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -660,14 +660,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -723,6 +723,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -787,8 +801,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -902,8 +916,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1098,7 +1118,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5n</c:v>
+                  <c:v>Yolov5n</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1112,7 +1132,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1165,7 +1185,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5s</c:v>
+                  <c:v>Yolov5s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1179,14 +1199,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1232,7 +1252,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5m</c:v>
+                  <c:v>Yolov5m</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1246,14 +1266,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1299,7 +1319,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5l</c:v>
+                  <c:v>Yolov5l</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1313,14 +1333,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2325,7 +2345,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2352,8 +2372,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2433,11 +2453,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2448,11 +2463,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2464,7 +2474,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2484,9 +2494,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2499,10 +2506,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2542,22 +2549,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2662,8 +2670,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2795,19 +2803,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2821,6 +2830,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3404,8 +3424,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>434241</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>191965</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>4148</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3420,8 +3440,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8286016" y="3098556"/>
-          <a:ext cx="7385050" cy="4434943"/>
+          <a:off x="8894185" y="3246618"/>
+          <a:ext cx="7996394" cy="4645840"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
@@ -3479,13 +3499,13 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9550653" y="3763823"/>
-              <a:ext cx="7243746" cy="3399392"/>
+              <a:off x="9610177" y="3800133"/>
+              <a:ext cx="7089200" cy="3333425"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3598,15 +3618,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>516305</xdr:colOff>
+      <xdr:colOff>498418</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>143934</xdr:rowOff>
+      <xdr:rowOff>161821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>667800</xdr:colOff>
+      <xdr:colOff>649913</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>61201</xdr:rowOff>
+      <xdr:rowOff>79088</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3623,15 +3643,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9643372" y="3843867"/>
-          <a:ext cx="5129895" cy="2448801"/>
+          <a:off x="9549404" y="3730342"/>
+          <a:ext cx="5088396" cy="2358887"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="22225">
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:srgbClr val="00B050"/>
           </a:solidFill>
           <a:prstDash val="dash"/>
         </a:ln>
@@ -3656,15 +3676,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>537403</xdr:colOff>
+      <xdr:colOff>510572</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>145032</xdr:rowOff>
+      <xdr:rowOff>162919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>618066</xdr:colOff>
+      <xdr:colOff>591235</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>33866</xdr:rowOff>
+      <xdr:rowOff>51753</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3681,15 +3701,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9664470" y="3844965"/>
-          <a:ext cx="5059063" cy="2420368"/>
+          <a:off x="9561558" y="3731440"/>
+          <a:ext cx="5017564" cy="2330454"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="22225">
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="dash"/>
         </a:ln>
@@ -4013,16 +4033,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="142" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="8" width="10.90625" style="2"/>
+    <col min="3" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4063,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4108,7 +4128,7 @@
         <v>0.62601626016260159</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -4153,7 +4173,7 @@
         <v>0.65040650406504064</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -4198,7 +4218,7 @@
         <v>0.65853658536585369</v>
       </c>
     </row>
-    <row r="6" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4243,7 +4263,7 @@
         <v>0.63414634146341464</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="V10" s="1"/>
     </row>
   </sheetData>
